--- a/Data/Slot Bunches.xlsx
+++ b/Data/Slot Bunches.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\AnalyticsChallenge2021\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC7059D-00D6-4BE7-82E6-A017BECFD494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC3D13D-791F-45D4-96ED-74B80482637A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="148">
   <si>
     <t>LiveRoutes</t>
   </si>
@@ -446,6 +457,24 @@
   </si>
   <si>
     <t>Cruise Lift</t>
+  </si>
+  <si>
+    <t>Cross</t>
+  </si>
+  <si>
+    <t>minus</t>
+  </si>
+  <si>
+    <t>bunches</t>
+  </si>
+  <si>
+    <t>- 2 / 3</t>
+  </si>
+  <si>
+    <t>m y stack</t>
+  </si>
+  <si>
+    <t>Vert</t>
   </si>
 </sst>
 </file>
@@ -489,11 +518,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K397"/>
+  <dimension ref="A1:S397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -843,52 +876,61 @@
     <col min="1" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>376</v>
+      </c>
+      <c r="I1"/>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1">
         <v>2</v>
       </c>
-      <c r="C1" s="1">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -897,24 +939,30 @@
         <v>376</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>112</v>
       </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -923,24 +971,27 @@
         <v>376</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
@@ -949,18 +1000,21 @@
         <v>376</v>
       </c>
       <c r="J4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -975,21 +1029,21 @@
         <v>376</v>
       </c>
       <c r="J5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1003,14 +1057,8 @@
       <c r="H6">
         <v>376</v>
       </c>
-      <c r="J6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -1020,6 +1068,9 @@
       <c r="C7" t="s">
         <v>108</v>
       </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -1039,15 +1090,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -1062,18 +1116,21 @@
         <v>376</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>118</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -1088,18 +1145,24 @@
         <v>376</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1114,18 +1177,24 @@
         <v>376</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>118</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1140,24 +1209,27 @@
         <v>376</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
         <v>110</v>
       </c>
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
         <v>4</v>
@@ -1166,24 +1238,30 @@
         <v>376</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
       <c r="F13">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
         <v>4</v>
@@ -1192,24 +1270,27 @@
         <v>376</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>119</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="s">
         <v>4</v>
@@ -1218,50 +1299,49 @@
         <v>376</v>
       </c>
       <c r="J14" t="s">
-        <v>102</v>
-      </c>
-      <c r="K14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>376</v>
-      </c>
-      <c r="J15" t="s">
-        <v>102</v>
-      </c>
-      <c r="K15">
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1276,10 +1356,7 @@
         <v>376</v>
       </c>
       <c r="J16" t="s">
-        <v>102</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1287,7 +1364,7 @@
         <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
         <v>112</v>
@@ -1296,7 +1373,7 @@
         <v>3</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G17" t="s">
         <v>4</v>
@@ -1305,10 +1382,7 @@
         <v>376</v>
       </c>
       <c r="J17" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1316,16 +1390,16 @@
         <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" t="s">
         <v>4</v>
@@ -1334,10 +1408,7 @@
         <v>376</v>
       </c>
       <c r="J18" t="s">
-        <v>101</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1345,16 +1416,16 @@
         <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E19">
         <v>3</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
         <v>4</v>
@@ -1363,10 +1434,7 @@
         <v>376</v>
       </c>
       <c r="J19" t="s">
-        <v>101</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1377,13 +1445,13 @@
         <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
         <v>4</v>
@@ -1392,7 +1460,7 @@
         <v>376</v>
       </c>
       <c r="J20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1400,19 +1468,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" t="s">
         <v>4</v>
@@ -1421,15 +1489,15 @@
         <v>376</v>
       </c>
       <c r="J21" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
         <v>112</v>
@@ -1438,7 +1506,7 @@
         <v>3</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
         <v>4</v>
@@ -1447,15 +1515,15 @@
         <v>376</v>
       </c>
       <c r="J22" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
         <v>112</v>
@@ -1473,15 +1541,15 @@
         <v>376</v>
       </c>
       <c r="J23" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
         <v>110</v>
@@ -1499,15 +1567,12 @@
         <v>376</v>
       </c>
       <c r="J24" t="s">
-        <v>100</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
         <v>109</v>
@@ -1528,27 +1593,24 @@
         <v>376</v>
       </c>
       <c r="J25" t="s">
-        <v>100</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
         <v>4</v>
@@ -1557,21 +1619,18 @@
         <v>376</v>
       </c>
       <c r="J26" t="s">
-        <v>100</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -1586,7 +1645,7 @@
         <v>376</v>
       </c>
       <c r="J27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -1597,13 +1656,10 @@
         <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -1618,7 +1674,7 @@
         <v>376</v>
       </c>
       <c r="J28" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -1629,13 +1685,10 @@
         <v>111</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -1650,7 +1703,10 @@
         <v>376</v>
       </c>
       <c r="J29" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1658,19 +1714,16 @@
         <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="s">
         <v>4</v>
@@ -1679,24 +1732,27 @@
         <v>376</v>
       </c>
       <c r="J30" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" t="s">
         <v>4</v>
@@ -1705,7 +1761,10 @@
         <v>376</v>
       </c>
       <c r="J31" t="s">
-        <v>140</v>
+        <v>101</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1713,16 +1772,16 @@
         <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G32" t="s">
         <v>4</v>
@@ -1731,27 +1790,27 @@
         <v>376</v>
       </c>
       <c r="J32" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="K32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G33" t="s">
         <v>4</v>
@@ -1760,30 +1819,39 @@
         <v>376</v>
       </c>
       <c r="J33" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="K33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O33" t="s">
+        <v>111</v>
+      </c>
+      <c r="P33" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>142</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
         <v>112</v>
       </c>
-      <c r="D34" t="s">
-        <v>128</v>
-      </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" t="s">
         <v>4</v>
@@ -1792,24 +1860,36 @@
         <v>376</v>
       </c>
       <c r="J34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="O34" t="s">
+        <v>111</v>
+      </c>
+      <c r="P34" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>112</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G35" t="s">
         <v>4</v>
@@ -1818,21 +1898,30 @@
         <v>376</v>
       </c>
       <c r="J35" t="s">
-        <v>139</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="O35" t="s">
+        <v>112</v>
+      </c>
+      <c r="P35" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>142</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -1847,27 +1936,36 @@
         <v>376</v>
       </c>
       <c r="J36" t="s">
-        <v>139</v>
-      </c>
-      <c r="K36">
+        <v>138</v>
+      </c>
+      <c r="O36" t="s">
+        <v>112</v>
+      </c>
+      <c r="P36" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>111</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
         <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
       </c>
       <c r="G37" t="s">
         <v>4</v>
@@ -1876,24 +1974,33 @@
         <v>376</v>
       </c>
       <c r="J37" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="K37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O37" t="s">
+        <v>142</v>
+      </c>
+      <c r="P37" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>112</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E38">
         <v>3</v>
@@ -1908,24 +2015,30 @@
         <v>376</v>
       </c>
       <c r="J38" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="K38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O38" t="s">
+        <v>142</v>
+      </c>
+      <c r="P38" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -1940,18 +2053,18 @@
         <v>376</v>
       </c>
       <c r="J39" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="K39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
         <v>110</v>
@@ -1960,7 +2073,7 @@
         <v>3</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" t="s">
         <v>4</v>
@@ -1969,27 +2082,27 @@
         <v>376</v>
       </c>
       <c r="J40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K40">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E41">
         <v>3</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41" t="s">
         <v>4</v>
@@ -1998,30 +2111,42 @@
         <v>376</v>
       </c>
       <c r="J41" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="K41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O41" t="s">
+        <v>116</v>
+      </c>
+      <c r="P41" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>111</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="S41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
         <v>110</v>
       </c>
-      <c r="D42" t="s">
-        <v>119</v>
-      </c>
       <c r="E42">
         <v>3</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="s">
         <v>4</v>
@@ -2030,13 +2155,25 @@
         <v>376</v>
       </c>
       <c r="J42" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="O42" t="s">
+        <v>116</v>
+      </c>
+      <c r="P42" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>115</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="S42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>111</v>
       </c>
@@ -2046,9 +2183,6 @@
       <c r="C43" t="s">
         <v>110</v>
       </c>
-      <c r="D43" t="s">
-        <v>118</v>
-      </c>
       <c r="E43">
         <v>3</v>
       </c>
@@ -2062,24 +2196,33 @@
         <v>376</v>
       </c>
       <c r="J43" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="K43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O43" t="s">
+        <v>115</v>
+      </c>
+      <c r="P43" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>111</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -2094,24 +2237,36 @@
         <v>376</v>
       </c>
       <c r="J44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>111</v>
+      </c>
+      <c r="P44" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>111</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E45">
         <v>3</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G45" t="s">
         <v>4</v>
@@ -2120,15 +2275,18 @@
         <v>376</v>
       </c>
       <c r="J45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
         <v>110</v>
@@ -2146,18 +2304,21 @@
         <v>376</v>
       </c>
       <c r="J46" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -2172,27 +2333,27 @@
         <v>376</v>
       </c>
       <c r="J47" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E48">
         <v>3</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="s">
         <v>4</v>
@@ -2201,21 +2362,21 @@
         <v>376</v>
       </c>
       <c r="J48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -2232,25 +2393,31 @@
       <c r="J49" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O49" t="s">
+        <v>147</v>
+      </c>
+      <c r="P49" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>111</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
         <v>113</v>
       </c>
-      <c r="D50" t="s">
-        <v>128</v>
-      </c>
       <c r="E50">
         <v>3</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G50" t="s">
         <v>4</v>
@@ -2262,7 +2429,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -2288,21 +2455,21 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>111</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E52">
         <v>3</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" t="s">
         <v>4</v>
@@ -2310,16 +2477,19 @@
       <c r="H52">
         <v>376</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -2334,21 +2504,21 @@
         <v>376</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E54">
         <v>3</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" t="s">
         <v>4</v>
@@ -2357,15 +2527,15 @@
         <v>376</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E55">
         <v>3</v>
@@ -2380,18 +2550,15 @@
         <v>376</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
         <v>111</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -2406,12 +2573,12 @@
         <v>376</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
         <v>110</v>
@@ -2429,15 +2596,15 @@
         <v>376</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -2452,7 +2619,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -2475,7 +2642,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>114</v>
       </c>
@@ -2498,7 +2665,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>110</v>
       </c>
@@ -2521,7 +2688,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -2544,7 +2711,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -10347,8 +10514,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K59">
-    <sortCondition ref="J2:J59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:K59">
+    <sortCondition descending="1" ref="D1:D59"/>
+    <sortCondition ref="J1:J59"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
